--- a/Data/Dienstag/joined_Dienstag_coord.xlsx
+++ b/Data/Dienstag/joined_Dienstag_coord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>NEUE_NAMEN_x</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Karlskirche</t>
   </si>
   <si>
-    <t>Martinolli</t>
-  </si>
-  <si>
     <t xml:space="preserve">Palais </t>
   </si>
   <si>
@@ -133,10 +130,10 @@
     <t>Hauptmauth</t>
   </si>
   <si>
-    <t>goldene Ente</t>
-  </si>
-  <si>
-    <t>König von Ungarn</t>
+    <t>goldene</t>
+  </si>
+  <si>
+    <t>Ente König von Ungarn</t>
   </si>
   <si>
     <t>Schulenstraße</t>
@@ -638,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,13 +685,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -704,12 +701,6 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="F5">
-        <v>16.37492382</v>
-      </c>
-      <c r="G5">
-        <v>48.20995125</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
@@ -718,6 +709,15 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
@@ -760,15 +760,6 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
@@ -801,6 +792,15 @@
       <c r="B13" t="s">
         <v>17</v>
       </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
@@ -809,15 +809,6 @@
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
@@ -826,6 +817,21 @@
       <c r="B15" t="s">
         <v>19</v>
       </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15">
+        <v>16.37969495</v>
+      </c>
+      <c r="G15">
+        <v>48.19712841</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
@@ -834,21 +840,6 @@
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16">
-        <v>16.37969495</v>
-      </c>
-      <c r="G16">
-        <v>48.19712841</v>
-      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
@@ -865,6 +856,15 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
@@ -873,15 +873,6 @@
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
@@ -906,6 +897,15 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
@@ -914,15 +914,6 @@
       <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
@@ -987,6 +978,21 @@
       <c r="B31" t="s">
         <v>35</v>
       </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31">
+        <v>16.38062978</v>
+      </c>
+      <c r="G31">
+        <v>48.20724597</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
@@ -1004,12 +1010,6 @@
       <c r="E32" t="s">
         <v>83</v>
       </c>
-      <c r="F32">
-        <v>16.37858988</v>
-      </c>
-      <c r="G32">
-        <v>48.20773869</v>
-      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
@@ -1018,15 +1018,6 @@
       <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="C33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
@@ -1051,6 +1042,15 @@
       <c r="B36" t="s">
         <v>40</v>
       </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
@@ -1093,15 +1093,6 @@
       <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="C39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
@@ -1118,22 +1109,14 @@
       <c r="B41" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" t="s">
-        <v>88</v>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
